--- a/data/transformed_data_2002.xlsx
+++ b/data/transformed_data_2002.xlsx
@@ -2372,7 +2372,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>157424.0036944523</v>
+        <v>158850.3348944523</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2708,7 +2708,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>15398.74</v>
+        <v>13242.9164</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2876,7 +2876,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>5210.66</v>
+        <v>4481.1676</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -5115,7 +5115,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>9953.539123186345</v>
+        <v>9839.251523186345</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -5451,7 +5451,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>86.23999999999999</v>
+        <v>74.1664</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -5619,7 +5619,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>902.5799999999999</v>
+        <v>776.2188</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -7844,7 +7844,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>21788.89869758179</v>
+        <v>22418.64669758179</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -8180,7 +8180,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>10819.2</v>
+        <v>9304.511999999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -8348,7 +8348,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>6321</v>
+        <v>5436.059999999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -10587,7 +10587,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>10030.38913399716</v>
+        <v>10111.19993399716</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -10923,7 +10923,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1196.58</v>
+        <v>1029.0588</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -11091,7 +11091,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>619.36</v>
+        <v>532.6496</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -13316,7 +13316,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>13642.2205086771</v>
+        <v>13517.2313086771</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -13652,7 +13652,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>5690.86</v>
+        <v>4894.1396</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -13820,7 +13820,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>6583.64</v>
+        <v>5661.930399999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -16059,7 +16059,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>4339.3812</v>
+        <v>4291.224</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -16395,7 +16395,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>64.67999999999999</v>
+        <v>55.6248</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -16563,7 +16563,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>408.66</v>
+        <v>351.4476</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -18788,7 +18788,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>14412.15158406828</v>
+        <v>14470.73598406828</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -19124,7 +19124,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>9422.700000000001</v>
+        <v>8103.522</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -19292,7 +19292,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>9004.24</v>
+        <v>7743.646400000001</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -21531,7 +21531,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>17116.6271943101</v>
+        <v>17132.2679943101</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -21867,7 +21867,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>6200.46</v>
+        <v>5332.3956</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -22035,7 +22035,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>6088.74</v>
+        <v>5236.316400000001</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -24274,7 +24274,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>14101.83716301565</v>
+        <v>14019.37996301565</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -24610,7 +24610,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>7575.4</v>
+        <v>6514.844</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -24778,7 +24778,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>8164.38</v>
+        <v>7021.3668</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -27017,7 +27017,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>4937.106647510669</v>
+        <v>4820.623847510669</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -27353,7 +27353,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>680.12</v>
+        <v>584.9032</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -27521,7 +27521,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1512.14</v>
+        <v>1300.4404</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -29746,7 +29746,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>5567.625850355618</v>
+        <v>5616.743450355618</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -30082,7 +30082,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>4153.24</v>
+        <v>3571.7864</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -30250,7 +30250,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>3802.4</v>
+        <v>3270.064</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -32489,7 +32489,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>25287.86270554765</v>
+        <v>25357.14870554765</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -32825,7 +32825,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1373.96</v>
+        <v>1181.6056</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -32993,7 +32993,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>879.0599999999999</v>
+        <v>755.9915999999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -35218,7 +35218,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>5428.012064371465</v>
+        <v>5388.498464371466</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -35554,7 +35554,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>40.18</v>
+        <v>34.5548</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -35722,7 +35722,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>322.42</v>
+        <v>277.2812</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -37947,7 +37947,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>5185.865576731796</v>
+        <v>5038.375576731796</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -38283,7 +38283,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>38.22</v>
+        <v>32.8692</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -38451,7 +38451,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1091.72</v>
+        <v>938.8792</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -40676,7 +40676,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>3252.455616500711</v>
+        <v>3228.582816500711</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -41012,7 +41012,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>2473.52</v>
+        <v>2127.2272</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -41180,7 +41180,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2644.04</v>
+        <v>2273.8744</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -43419,7 +43419,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>3719.585804702265</v>
+        <v>3739.617004702264</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -43755,7 +43755,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>5791.8</v>
+        <v>4980.948</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -43923,7 +43923,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>5648.72</v>
+        <v>4857.8992</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -46162,7 +46162,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>14173.81998918919</v>
+        <v>13683.74158918919</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -46498,7 +46498,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>5708.5</v>
+        <v>4909.309999999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -46666,7 +46666,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>9209.059999999999</v>
+        <v>7919.7916</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -48905,7 +48905,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>3727.340336273115</v>
+        <v>3706.897536273115</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -49241,7 +49241,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>3635.8</v>
+        <v>3126.788</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -49409,7 +49409,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>3781.82</v>
+        <v>3252.3652</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -51648,7 +51648,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>6508.822785206259</v>
+        <v>6313.998785206259</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -51984,7 +51984,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>633.08</v>
+        <v>544.4487999999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -52152,7 +52152,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2024.68</v>
+        <v>1741.2248</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -54363,7 +54363,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>3074.566657752489</v>
+        <v>3108.729457752489</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -54699,7 +54699,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>874.16</v>
+        <v>751.7776</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -54867,7 +54867,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>630.14</v>
+        <v>541.9204</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -57092,7 +57092,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>7465.149944238976</v>
+        <v>7399.979944238976</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -57428,7 +57428,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>764.4</v>
+        <v>657.3839999999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -57596,7 +57596,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1229.9</v>
+        <v>1057.714</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -59835,7 +59835,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>8408.522841536273</v>
+        <v>8443.097241536272</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -60171,7 +60171,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1298.5</v>
+        <v>1116.71</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -60339,7 +60339,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1051.54</v>
+        <v>904.3244</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -62550,7 +62550,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>45315.63067027027</v>
+        <v>47734.46667027027</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -62886,7 +62886,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>20911.24</v>
+        <v>17983.6664</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -63054,7 +63054,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>3633.84</v>
+        <v>3125.1024</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -65293,7 +65293,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>2708.923583499288</v>
+        <v>2725.524783499288</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -65629,7 +65629,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>2119.74</v>
+        <v>1822.9764</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -65797,7 +65797,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2001.16</v>
+        <v>1720.9976</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -68022,7 +68022,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>105756.6592108108</v>
+        <v>103479.6880108108</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -68358,7 +68358,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>14729.4</v>
+        <v>12667.284</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -68526,7 +68526,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>30993.48</v>
+        <v>26654.3928</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -70765,7 +70765,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>33019.58143214793</v>
+        <v>32926.42263214794</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -71101,7 +71101,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>2058.98</v>
+        <v>1770.7228</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -71269,7 +71269,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2724.4</v>
+        <v>2342.984</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -73494,7 +73494,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>27962.93318577524</v>
+        <v>29457.31558577525</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -73830,7 +73830,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>12771.36</v>
+        <v>10983.3696</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -73998,7 +73998,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2097.2</v>
+        <v>1803.592</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -76237,7 +76237,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>22085.75658947368</v>
+        <v>23077.57538947368</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -76573,7 +76573,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>20649.58</v>
+        <v>17758.6388</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -76741,7 +76741,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>13565.16</v>
+        <v>11666.0376</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -78980,7 +78980,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>14664.53037886679</v>
+        <v>14741.77397886679</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -79316,7 +79316,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1780.66</v>
+        <v>1531.3676</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -79484,7 +79484,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1228.92</v>
+        <v>1056.8712</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -81709,7 +81709,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>13172.71444153627</v>
+        <v>13277.12364153627</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -82045,7 +82045,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1729.7</v>
+        <v>1487.542</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -82213,7 +82213,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>983.92</v>
+        <v>846.1711999999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
